--- a/DIA_2015/annotatedGOslimarea.tabular.xlsx
+++ b/DIA_2015/annotatedGOslimarea.tabular.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -3478,10 +3478,18 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3493,10 +3501,18 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3511,7 +3527,9 @@
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3523,10 +3541,12 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3557,10 +3577,18 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3778,10 +3806,18 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3984,7 +4020,7 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -3999,10 +4035,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4200,12 +4238,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6ADC-4A34-8DF8-3163A8FB3637}"/>
+              <c16:uniqueId val="{00000003-6ADC-4A34-8DF8-3163A8FB3637}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -4220,10 +4258,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4421,7 +4461,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6ADC-4A34-8DF8-3163A8FB3637}"/>
+              <c16:uniqueId val="{00000000-FC5D-4D9C-B930-171A0DD11CC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4493,6 +4533,7 @@
         <c:axId val="268182808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7200000000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5238,15 +5279,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16769,7 +16810,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="R3:V33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -16986,7 +17027,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L2:P33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -17466,8 +17507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AN14" sqref="AN14"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AP24" sqref="AP24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
